--- a/data/trans_bre/P12B1_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-87,26</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,34</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,7</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>123,81%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>53,55%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>-29,03%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-23,14%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-3,48%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19,69%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-8,82%</t>
         </is>
       </c>
     </row>
@@ -668,40 +720,60 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -36,89</t>
+          <t>-8,76; -1,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 85,16</t>
+          <t>-3,24; 1,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-36,53; 57,75</t>
+          <t>-4,16; 1,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-52,86; 59,34</t>
+          <t>-4,96; 4,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-3,95; 6,54</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 1,63</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-93,44; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-33,66</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,19</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,64</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-55,13</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-3,32</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>49,54%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>30,56%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-55,13%</t>
+          <t>-36,57%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>39,46%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-47,52%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-66,62%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14,16%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-61,51; -8,66</t>
+          <t>-6,77; -0,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 64,11</t>
+          <t>-4,0; 1,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 53,4</t>
+          <t>-1,79; 3,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-86,03; -14,63</t>
+          <t>-4,98; 1,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-9,67; 0,28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 4,87</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-71,18; 740,61</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-63,17; 484,22</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,03; -14,63</t>
+          <t>-100,0; 427,31</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 56,6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-83,92; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,72</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,44</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-22,93</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>298,01%</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-47,08%</t>
+          <t>553,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-53,55%</t>
+          <t>115,01%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-57,6%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>32,78%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-12,8%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-63,29%</t>
         </is>
       </c>
     </row>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 50,76</t>
+          <t>0,33; 4,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 24,41</t>
+          <t>-0,72; 2,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-41,45; 18,04</t>
+          <t>-3,13; 0,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-65,53; 17,72</t>
+          <t>-1,59; 2,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-2,26; 1,51</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-10,94; 1,15</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-82,29; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-90,49; 229,25</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 205,76</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,05</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,12</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,45</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,29</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>53,24%</t>
+          <t>54,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-34,03%</t>
+          <t>32,9%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>79,61%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,51%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-76,17%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-14,3%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 38,13</t>
+          <t>-1,79; 5,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 37,21</t>
+          <t>-1,45; 4,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 44,99</t>
+          <t>-0,41; 5,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,44; 24,0</t>
+          <t>-2,55; 3,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 129,27</t>
+          <t>-8,0; -0,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,4; 152,44</t>
+          <t>-4,29; 3,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 199,43</t>
+          <t>-36,26; 244,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 103,03</t>
+          <t>-36,19; 202,86</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-14,58; 303,11</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-60,91; 238,76</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-95,36; 4,49</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-70,3; 213,94</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>38,13</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>40,06</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>30,16</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>80,95%</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>120,76%</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>178,79%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>68,13%</t>
+          <t>334,94%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>46,72%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,18%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>106,98%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11,25%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,16; 67,38</t>
+          <t>1,72; 10,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,78; 66,48</t>
+          <t>2,91; 10,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 30,32</t>
+          <t>-1,85; 7,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 55,6</t>
+          <t>-5,18; 5,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,15; 324,56</t>
+          <t>-0,28; 11,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,37; 488,86</t>
+          <t>-4,46; 6,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 64,18</t>
+          <t>18,54; 593,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,57; 215,51</t>
+          <t>71,44; 1226,89</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-24,11; 196,19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-58,91; 126,27</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-11,66; 337,49</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-45,53; 154,16</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>10,17</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,75%</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,59%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>10,36%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>44,36%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>95,74%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>30,57%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-29,78%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 19,1</t>
+          <t>-8,6; 12,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 3,66</t>
+          <t>-6,21; 9,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,6; -1,48</t>
+          <t>-1,16; 15,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 22,38</t>
+          <t>0,22; 20,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 24,71</t>
+          <t>-4,69; 15,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 3,87</t>
+          <t>-17,61; 3,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,6; -1,48</t>
+          <t>-34,44; 90,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 32,18</t>
+          <t>-26,96; 70,0</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-8,51; 128,48</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-4,47; 293,19</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-27,36; 141,24</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-63,41; 37,37</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,92</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,88</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>46,41%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>55,08%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>56,55%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24,37%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-9,25%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 24,87</t>
+          <t>-0,22; 4,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 27,93</t>
+          <t>0,31; 3,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 28,14</t>
+          <t>0,67; 4,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 24,91</t>
+          <t>0,3; 5,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 50,29</t>
+          <t>-0,97; 4,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 62,77</t>
+          <t>-3,24; 2,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,95; 68,01</t>
+          <t>-6,95; 98,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 53,17</t>
+          <t>4,58; 108,66</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>12,08; 116,44</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 158,05</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-15,74; 88,86</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-40,87; 46,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
